--- a/Master_values.xlsx
+++ b/Master_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_workplace\11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3320FBA-5ABA-48C0-AB6B-E8BAF1805EB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6282E1-DF81-4389-B676-5AB390FD8C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>values</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,16 @@
   <si>
     <t>TX count:0x3728</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59 32 07 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 32 07 48</t>
+  </si>
+  <si>
+    <t>61 32 07 48</t>
   </si>
 </sst>
 </file>
@@ -87,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,18 +380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -388,28 +400,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
